--- a/data/variable_biologique_bioLOINC.xlsx
+++ b/data/variable_biologique_bioLOINC.xlsx
@@ -9,11 +9,11 @@
     <sheet state="visible" name="extract" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_42374D40_6118_413E_9177_B74340DFBD9C_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_7894752B_5FA9_42E0_996B_AD3234315C13_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{42374D40-6118-413E-9177-B74340DFBD9C}" name="Filtre 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7894752B-5FA9-42E0-996B-AD3234315C13}" name="Filtre 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -87,10 +87,10 @@
     <t>Créatininurie volumique</t>
   </si>
   <si>
-    <t>Créatininurie, Créatine (urines), Créatine urinaire, Creatinin</t>
-  </si>
-  <si>
-    <t>[cR]r.atininurie|([[cR]r.atin.{0,8}[uU]ri[^ ]*)</t>
+    <t>Créatininurie, Créatinine (urines), Créatinine urinaire, Creatinin</t>
+  </si>
+  <si>
+    <t>[cR]r.atininurie|([[cR]r.atinin.{0,8}[uU]ri[^ ]*)</t>
   </si>
   <si>
     <t>g/L</t>
@@ -123,10 +123,10 @@
     <t>Protéinuries, Protéines (urines), Protéines urinaires, Proteins</t>
   </si>
   <si>
-    <t>[pR]ot.inurie|([pR]ot.in.{1,10}[uU]rin[^ ]*)</t>
-  </si>
-  <si>
-    <t>{mg([ \/]|( par ))L, 1} {g([ \/]|( par ))L,0.001}</t>
+    <t>[pP]rot.inurie|([pP]rot.in.{1,10}[uU]rin[^ ]*)</t>
+  </si>
+  <si>
+    <t>{mg([ \/]|( par ))L, 1} ;{g([ \/]|( par ))L,0.001}</t>
   </si>
   <si>
     <t>PRO24h</t>
@@ -135,7 +135,7 @@
     <t>Protéinurie 24h</t>
   </si>
   <si>
-    <t>{mg([ \/]|( par ))24 ?h,1} {g([ \/]|( par ))24 ?h,0.001}</t>
+    <t>{mg([ \/]|( par ))24 ?h,1}; {g([ \/]|( par ))24 ?h,0.001}</t>
   </si>
   <si>
     <t>RAC</t>
@@ -194,7 +194,7 @@
     <t>Débit de filtration glomérulaire, DFG, glomerular filtration rate, GFR</t>
   </si>
   <si>
-    <t>(DFG )|(GFR )|([dD].bit.{1,5}[fF]iltra.{1,10} [gG][^ ]+)|([gG]lomer.{1,10}[fF]iltra.{1,10}[rR]ate)</t>
+    <t>(DFG )|(GFR )|(CKD[- ]?EPI)|([dD].bit.{1,5}[fF]iltra.{1,10} [gG][^ ]+)|([gG]lomer.{1,10}[fF]iltra.{1,10}[rR]ate)</t>
   </si>
   <si>
     <t>mL/min/1,73m2</t>
@@ -275,7 +275,7 @@
     <t xml:space="preserve">Lymphocytes ; Lc </t>
   </si>
   <si>
-    <t>(Lc)|[lL]ymphoc[iy]te[s]?</t>
+    <t>([lL][cC][^a-zA-Z])|[lL]ymphoc[iy]te[s]?</t>
   </si>
   <si>
     <t>PLAQ</t>
@@ -11757,7 +11757,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{42374D40-6118-413E-9177-B74340DFBD9C}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7894752B-5FA9-42E0-996B-AD3234315C13}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$AC$997"/>
     </customSheetView>
   </customSheetViews>

--- a/data/variable_biologique_bioLOINC.xlsx
+++ b/data/variable_biologique_bioLOINC.xlsx
@@ -9,11 +9,11 @@
     <sheet state="visible" name="extract" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_0DB99419_9870_4585_B335_92597D4BBC61_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_3E33EBCD_DBEA_4B3A_B55F_184CA4B5D9E5_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{0DB99419-9870-4585-B335-92597D4BBC61}" name="Filtre 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3E33EBCD-DBEA-4B3A-B55F-184CA4B5D9E5}" name="Filtre 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -57,7 +57,7 @@
     <t>Albuminurie, Albumine (urines), Albumine urinaire, Albumin, Microalbuminurie</t>
   </si>
   <si>
-    <t>[aA]lbuminurie|([aA]lbumin.{1,10}[uU]rin[^ ]*)|[aA]lbumine[^ ]*</t>
+    <t>[aA]lbuminurie|([aA]lbumin.{1,10}[uU]rin[^ ]*)|([Mmicro]{5})?[aA]lbumi[^ ]*</t>
   </si>
   <si>
     <t>mg/L</t>
@@ -456,10 +456,10 @@
     <t>HbA1c</t>
   </si>
   <si>
-    <t>Hémoglobine glyquée, Hémoglobine glycosylée, HbA1c</t>
-  </si>
-  <si>
-    <t>H[bB]A1[cC]|([hH].moglobin.{1,4}[gG]l[iy]c[^ ]*)</t>
+    <t>Hémoglobine glyquée, Hémoglobine glycosylée, HbA1c, Hémoglobine A1c</t>
+  </si>
+  <si>
+    <t>H[bB]A1[cC]|([hH].moglobin.{1,4}[gG]l[iy]c[^ ]*)|[hH].moglobine [Aa]1[cC]</t>
   </si>
   <si>
     <t>%</t>
@@ -11820,7 +11820,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{0DB99419-9870-4585-B335-92597D4BBC61}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{3E33EBCD-DBEA-4B3A-B55F-184CA4B5D9E5}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$AC$997"/>
     </customSheetView>
   </customSheetViews>

--- a/data/variable_biologique_bioLOINC.xlsx
+++ b/data/variable_biologique_bioLOINC.xlsx
@@ -9,11 +9,11 @@
     <sheet state="visible" name="extract" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_3E33EBCD_DBEA_4B3A_B55F_184CA4B5D9E5_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_11E26A56_0FD9_4328_BF8F_85F69C7D723B_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{3E33EBCD-DBEA-4B3A-B55F-184CA4B5D9E5}" name="Filtre 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{11E26A56-0FD9-4328-BF8F-85F69C7D723B}" name="Filtre 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -273,7 +273,7 @@
     <t xml:space="preserve">Lymphocytes ; Lc </t>
   </si>
   <si>
-    <t>([lL][cC][^a-zA-Z])|[lL]ymphoc[iy]te[s]?</t>
+    <t>[lL]ymphoc[iy]te[s]?</t>
   </si>
   <si>
     <t>10^9/L ; G/L ; [gG]iga/L</t>
@@ -11820,7 +11820,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3E33EBCD-DBEA-4B3A-B55F-184CA4B5D9E5}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{11E26A56-0FD9-4328-BF8F-85F69C7D723B}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$AC$997"/>
     </customSheetView>
   </customSheetViews>

--- a/data/variable_biologique_bioLOINC.xlsx
+++ b/data/variable_biologique_bioLOINC.xlsx
@@ -9,11 +9,11 @@
     <sheet state="visible" name="extract" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_1D7F336D_B675_4045_A8C8_BBBAEECAE62B_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_8CA7D0DE_8F4F_4043_AD70_6AB9E05362DA_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{1D7F336D-B675-4045-A8C8-BBBAEECAE62B}" name="Filtre 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8CA7D0DE-8F4F-4043-AD70-6AB9E05362DA}" name="Filtre 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -99,7 +99,7 @@
     <t>g/L</t>
   </si>
   <si>
-    <t>{( g)([ \/]|( par ))L,1};{mg([ \/]|( par ))L, 1000};{mmol([ \/]|( par ))L,0.11312};{[uµ]mol\/[Ll],0.00000011312}</t>
+    <t>{( g)([ \/]|( par ))L,1};{mg([ \/]|( par ))L, 0.001};{mmol([ \/]|( par ))L,0.11312};{[uµ]mol\/[Ll],0.00000011312}</t>
   </si>
   <si>
     <t>0-10</t>
@@ -132,7 +132,7 @@
     <t>[pP]rot.inurie|([pP]rot.in.{1,10}[uU]rin[^ ]*)</t>
   </si>
   <si>
-    <t>{mg([ \/]|( par ))L, 1} ;{g([ \/]|( par ))L,0.001}</t>
+    <t>{mg([ \/]|( par ))L, 1} ;{g([ \/]|( par ))L,1000}</t>
   </si>
   <si>
     <t>PRO24h</t>
@@ -339,7 +339,7 @@
     <t>Alainie aminotransférase, ALAT, SGPT</t>
   </si>
   <si>
-    <t>(ALAT) |([aA]lanine.{1,5}[aA]minotransf.ra[^ ]+)</t>
+    <t>(ALAT)|(SGPT)|([aA]lanine.{1,5}[aA]minotransf.ra[^ ]+)</t>
   </si>
   <si>
     <t>U/I</t>
@@ -492,7 +492,7 @@
     <t>mUI/L</t>
   </si>
   <si>
-    <t>{mUI\/[Ll],1};{mU\/[lL],1};{mIU\/[Ll],1};{UI\/m[Ll],10e3};{uUI\/m[Ll],1}</t>
+    <t>{mUI\/[Ll],1};{mU\/[lL],1};{mIU\/[Ll],1};{UI\/m[Ll],1};{uUI\/m[Ll],1}</t>
   </si>
   <si>
     <t>UI/mL;uUI/mL</t>
@@ -507,7 +507,7 @@
     <t>Béta HCG, Béta human chorionic gonadotrophine, HCG, β-HCG</t>
   </si>
   <si>
-    <t>H[.]?C[.]?G[.]?|([bB].ta.{1,3}human.{1,3}chorionic.{1,3}gonadotroph[^ ]*)</t>
+    <t>[hH][.]?[cC][.]?[gG][.]?|([bB].ta.{1,3}human.{1,3}chorionic.{1,3}gonadotroph[^ ]*)</t>
   </si>
   <si>
     <t>{UI\/[Ll],1};{U\/[lL],1};{IU\/[Ll],1}</t>
@@ -11835,7 +11835,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{1D7F336D-B675-4045-A8C8-BBBAEECAE62B}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8CA7D0DE-8F4F-4043-AD70-6AB9E05362DA}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$AC$997"/>
     </customSheetView>
   </customSheetViews>

--- a/data/variable_biologique_bioLOINC.xlsx
+++ b/data/variable_biologique_bioLOINC.xlsx
@@ -9,11 +9,11 @@
     <sheet state="visible" name="extract" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_DD8A281C_2146_45C5_B209_ED0778F1D244_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_ED047D01_C2AF_4103_864F_645B0F41CCA8_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{DD8A281C-2146-45C5-B209-ED0778F1D244}" name="Filtre 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ED047D01-C2AF-4103-864F-645B0F41CCA8}" name="Filtre 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -93,7 +93,7 @@
     <t>Créatininurie, Créatinine (urines), Créatinine urinaire, Creatinin</t>
   </si>
   <si>
-    <t>[cC]r.atininurie|([[cR]r.atinin.{0,8}[uU]ri[^ ]*)|[cC]r.atinine[^ m]*</t>
+    <t>[cC]r.atininurie|([[cR]r.atinin.{0,8}[uU]ri[^ ]*)</t>
   </si>
   <si>
     <t>g/L</t>
@@ -192,7 +192,7 @@
     <t>mL/min/1,73m2</t>
   </si>
   <si>
-    <t>{mL\/mi?n\/1.73m,1}</t>
+    <t>{m[Ll]\/min,1};{mL\/mi?n\/1.73m,1}</t>
   </si>
   <si>
     <t>0-300</t>
@@ -240,7 +240,7 @@
     <t>G/L</t>
   </si>
   <si>
-    <t>{10^9\/[Ll],1};{G\/[Ll],1};{[gG]iga\/[Ll],1};{\/ml,10e-12};{\/mm3,10e-15}</t>
+    <t>{10^9\/[Ll],1};{G\/[Ll],1};{[gG]iga\/[Ll],1};{\/ml,10e-6};{\/mm3,1e-3}</t>
   </si>
   <si>
     <t>0-200</t>
@@ -4491,7 +4491,7 @@
   <cols>
     <col customWidth="1" min="1" max="2" width="28.29"/>
     <col customWidth="1" min="3" max="3" width="71.57"/>
-    <col customWidth="1" min="4" max="4" width="68.86"/>
+    <col customWidth="1" min="4" max="4" width="89.29"/>
     <col customWidth="1" min="5" max="5" width="20.14"/>
     <col customWidth="1" min="6" max="6" width="91.29"/>
     <col customWidth="1" min="7" max="8" width="37.0"/>
@@ -11840,7 +11840,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{DD8A281C-2146-45C5-B209-ED0778F1D244}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{ED047D01-C2AF-4103-864F-645B0F41CCA8}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$AC$997"/>
     </customSheetView>
   </customSheetViews>

--- a/data/variable_biologique_bioLOINC.xlsx
+++ b/data/variable_biologique_bioLOINC.xlsx
@@ -9,11 +9,11 @@
     <sheet state="visible" name="extract" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_ED047D01_C2AF_4103_864F_645B0F41CCA8_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_2E7879BE_320C_4C39_B86D_129F21F9A7AB_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{ED047D01-C2AF-4103-864F-645B0F41CCA8}" name="Filtre 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2E7879BE-320C-4C39-B86D-129F21F9A7AB}" name="Filtre 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -240,7 +240,7 @@
     <t>G/L</t>
   </si>
   <si>
-    <t>{10^9\/[Ll],1};{G\/[Ll],1};{[gG]iga\/[Ll],1};{\/ml,10e-6};{\/mm3,1e-3}</t>
+    <t>{10^9\/[Ll],1};{G\/[Ll],1};{[gG]iga\/[Ll],1};{\/ml,1e-6};{\/mm3,1e-3}</t>
   </si>
   <si>
     <t>0-200</t>
@@ -11840,7 +11840,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{ED047D01-C2AF-4103-864F-645B0F41CCA8}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{2E7879BE-320C-4C39-B86D-129F21F9A7AB}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$AC$997"/>
     </customSheetView>
   </customSheetViews>

--- a/data/variable_biologique_bioLOINC.xlsx
+++ b/data/variable_biologique_bioLOINC.xlsx
@@ -9,11 +9,11 @@
     <sheet state="visible" name="extract" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="Z_2E7879BE_320C_4C39_B86D_129F21F9A7AB_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_8A7FD0B9_AF56_4F6C_A0E1_BC832EB75359_.wvu.FilterData">CiblageProtocoleLOINC!$A$1:$AC$997</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{2E7879BE-320C-4C39-B86D-129F21F9A7AB}" name="Filtre 1"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{8A7FD0B9-AF56-4F6C-A0E1-BC832EB75359}" name="Filtre 1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -216,7 +216,7 @@
     <t>Hb, Hémoglobine (attention a ne pas capter l'hémoglobine glycquée)</t>
   </si>
   <si>
-    <t>(H[bB] )|([hH].moglobine(?!.{0,4}glyc[^ ]*))</t>
+    <t>\bH[bB]\b|\b[Hh]\.?émoglobine\b(?!(?:\s*[Aa]\d*|\s*g[lyc]+\w*))</t>
   </si>
   <si>
     <t>g/dL</t>
@@ -471,7 +471,7 @@
     <t>Hémoglobine glyquée, Hémoglobine glycosylée, HbA1c, Hémoglobine A1c</t>
   </si>
   <si>
-    <t>H[bB]A1[cC]|([hH].moglobin.{1,4}[gG]l[iy]c[^ ]*)|[hH].moglobine [Aa]1[cC]</t>
+    <t>[hH[bB][aA]1[cC]|([hH].moglobin.{1,4}[gG]l[iy]c[^ ]*)|[hH].moglobine [Aa]1[cC]</t>
   </si>
   <si>
     <t>%</t>
@@ -11840,7 +11840,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{2E7879BE-320C-4C39-B86D-129F21F9A7AB}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{8A7FD0B9-AF56-4F6C-A0E1-BC832EB75359}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$AC$997"/>
     </customSheetView>
   </customSheetViews>
